--- a/Data/Processed/Angiosperms/missing_powo_ipni/Caryophyllaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Caryophyllaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 5: 141. 1897 </t>
+          <t>Contr. U.S. Natl. Herb. 5: 141. 1897</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Inst. Biol. Veg. 2(1): 33. 1935 [Sep 1935] </t>
+          <t>Arq. Inst. Biol. Veg. 2(1): 33. 1935 [Sep 1935]</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 2: 149. 1936 </t>
+          <t>Brittonia 2: 149. 1936</t>
         </is>
       </c>
       <c r="J67" t="b">
